--- a/biology/Médecine/IQGAP1/IQGAP1.xlsx
+++ b/biology/Médecine/IQGAP1/IQGAP1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">IQGAP1 est une protéine d'échafaudage (participant à la transduction de signaux entre cellules en régulant l’activation des cascades moléculaires impliqués dans la transmission du signal) dont le gène est IQGAP1 situé sur le chromosome 15 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se fixe à l'actine et jouerait un rôle dans la formation des filaments d'actine[5].
-Elle se fixe également sur l'ERK2[6], sur le MAPK[7] (« mitogen-activated protein kinase »), sur le CDC42 (« Cell division control protein 42 »), le RAC1[8], la calmoduline[9] et en régule les activités.
-Par son action, elle semble jouer un rôle dans de nombreuses maladies, cancer[10] ou asthme[11] par exemple.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se fixe à l'actine et jouerait un rôle dans la formation des filaments d'actine.
+Elle se fixe également sur l'ERK2, sur le MAPK (« mitogen-activated protein kinase »), sur le CDC42 (« Cell division control protein 42 »), le RAC1, la calmoduline et en régule les activités.
+Par son action, elle semble jouer un rôle dans de nombreuses maladies, cancer ou asthme par exemple.
 </t>
         </is>
       </c>
